--- a/LLMpricing.xlsx
+++ b/LLMpricing.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/CC/NBA_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0542D32B-9104-4F4C-B07E-D834A71918A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED49EFF-A6B4-2845-A4A1-27F44EA91B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="-26480" windowWidth="47220" windowHeight="25440" xr2:uid="{B40754D9-A277-7B4D-B9A9-236B0267178E}"/>
+    <workbookView xWindow="7360" yWindow="980" windowWidth="47220" windowHeight="25440" xr2:uid="{B40754D9-A277-7B4D-B9A9-236B0267178E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -232,9 +232,9 @@
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -292,12 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -636,7 +639,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -737,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -855,7 +858,7 @@
       </c>
       <c r="B8" s="3">
         <f>+(B$4/1000000*C8+B$5/1000000*D8)*B$3</f>
-        <v>0.26431500000000002</v>
+        <v>0.36293999999999998</v>
       </c>
       <c r="C8" s="8">
         <v>0.15</v>
@@ -892,7 +895,7 @@
       </c>
       <c r="B9" s="3">
         <f>+(B$4/1000000*C9+B$5/1000000*D9)*B$3</f>
-        <v>1.5780000000000001</v>
+        <v>2.1039999999999996</v>
       </c>
       <c r="C9" s="8">
         <v>0.8</v>
@@ -929,7 +932,7 @@
       </c>
       <c r="B10" s="3">
         <f>+(B$4/1000000*C10+B$5/1000000*D10)*B$3</f>
-        <v>4.3658000000000001</v>
+        <v>5.6808000000000005</v>
       </c>
       <c r="C10" s="8">
         <v>2</v>
@@ -966,7 +969,7 @@
       </c>
       <c r="B11" s="3">
         <f>+(B$4/1000000*C11+B$5/1000000*D11)*B$3</f>
-        <v>9.8624999999999989</v>
+        <v>13.149999999999999</v>
       </c>
       <c r="C11" s="8">
         <v>5</v>
@@ -1173,7 +1176,17 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>1491154</v>
+      </c>
+      <c r="B19" s="9">
+        <f>+A19/1000000*2</f>
+        <v>2.9823080000000002</v>
+      </c>
+      <c r="D19" s="10">
+        <f>+A19/715</f>
+        <v>2085.5300699300701</v>
+      </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
@@ -1198,7 +1211,17 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>205869</v>
+      </c>
+      <c r="B20" s="9">
+        <f>+A20/1000000*12</f>
+        <v>2.4704280000000001</v>
+      </c>
+      <c r="D20" s="10">
+        <f>+A20/715</f>
+        <v>287.92867132867133</v>
+      </c>
       <c r="F20" t="s">
         <v>32</v>
       </c>
@@ -1224,6 +1247,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2"/>
+      <c r="B21" s="11">
+        <f>+SUM(B19:B20)</f>
+        <v>5.4527359999999998</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="G22" cm="1">
